--- a/analysis/pre_gemini_data/participant300/easy.xlsx
+++ b/analysis/pre_gemini_data/participant300/easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,102 +422,98 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>condstae</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>exception</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>literl</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>loopstae</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>xternal</t>
         </is>
@@ -568,19 +552,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
         <v>7</v>
@@ -590,35 +574,33 @@
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -628,19 +610,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93</v>
+      </c>
+      <c r="D4" t="n">
         <v>29</v>
       </c>
-      <c r="C4" t="n">
-        <v>127</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39</v>
-      </c>
       <c r="E4" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
         <v>105</v>
@@ -650,35 +632,33 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
         <v>5</v>
       </c>
-      <c r="N4" t="n">
-        <v>6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>257</v>
+        <v>124</v>
       </c>
       <c r="Q4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -688,19 +668,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10477.41</v>
+        <v>9426.370000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>39074.3</v>
+        <v>28496.49</v>
       </c>
       <c r="D5" t="n">
-        <v>13614.51</v>
+        <v>10828.1</v>
       </c>
       <c r="E5" t="n">
-        <v>17752.34</v>
+        <v>14048.1</v>
       </c>
       <c r="F5" t="n">
-        <v>13297.45</v>
+        <v>10511.04</v>
       </c>
       <c r="G5" t="n">
         <v>27748.88</v>
@@ -710,35 +690,33 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>22256.48</v>
+        <v>17634.8</v>
       </c>
       <c r="K5" t="n">
-        <v>7206.78</v>
+        <v>5455.02</v>
       </c>
       <c r="L5" t="n">
-        <v>10477.41</v>
+        <v>9426.370000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>3086.52</v>
+        <v>2836.2</v>
       </c>
       <c r="N5" t="n">
-        <v>1868.62</v>
-      </c>
-      <c r="O5" t="n">
-        <v>533.87</v>
-      </c>
+        <v>1334.75</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>72896.42999999999</v>
+        <v>32337.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>4186.68</v>
+        <v>3035.57</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>8659.120000000001</v>
+        <v>7608.08</v>
       </c>
       <c r="T5" t="n">
-        <v>7173.8</v>
+        <v>5722.42</v>
       </c>
     </row>
     <row r="6">
@@ -748,57 +726,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.64</v>
+        <v>6.32</v>
       </c>
       <c r="C6" t="n">
-        <v>13.57</v>
+        <v>19.09</v>
       </c>
       <c r="D6" t="n">
-        <v>4.73</v>
+        <v>7.26</v>
       </c>
       <c r="E6" t="n">
-        <v>6.17</v>
+        <v>9.41</v>
       </c>
       <c r="F6" t="n">
-        <v>4.62</v>
+        <v>7.04</v>
       </c>
       <c r="G6" t="n">
         <v>20.01</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>7.73</v>
+        <v>11.82</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>3.66</v>
       </c>
       <c r="L6" t="n">
-        <v>3.64</v>
+        <v>6.32</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.19</v>
-      </c>
+        <v>0.89</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>25.32</v>
+        <v>21.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.45</v>
+        <v>2.03</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>3.01</v>
+        <v>5.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.49</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="7">
@@ -808,19 +784,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.29</v>
+        <v>377.05</v>
       </c>
       <c r="C7" t="n">
-        <v>307.67</v>
+        <v>306.41</v>
       </c>
       <c r="D7" t="n">
-        <v>349.09</v>
+        <v>373.38</v>
       </c>
       <c r="E7" t="n">
-        <v>328.75</v>
+        <v>342.64</v>
       </c>
       <c r="F7" t="n">
-        <v>359.39</v>
+        <v>389.3</v>
       </c>
       <c r="G7" t="n">
         <v>264.28</v>
@@ -830,35 +806,33 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>322.56</v>
+        <v>332.73</v>
       </c>
       <c r="K7" t="n">
-        <v>343.18</v>
+        <v>363.67</v>
       </c>
       <c r="L7" t="n">
-        <v>361.29</v>
+        <v>377.05</v>
       </c>
       <c r="M7" t="n">
-        <v>617.3</v>
+        <v>709.05</v>
       </c>
       <c r="N7" t="n">
-        <v>311.44</v>
-      </c>
-      <c r="O7" t="n">
-        <v>533.87</v>
-      </c>
+        <v>266.95</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>283.64</v>
+        <v>260.79</v>
       </c>
       <c r="Q7" t="n">
-        <v>380.61</v>
+        <v>379.45</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>360.8</v>
+        <v>380.4</v>
       </c>
       <c r="T7" t="n">
-        <v>358.69</v>
+        <v>357.65</v>
       </c>
     </row>
     <row r="8">
@@ -904,9 +878,7 @@
       <c r="N8" t="n">
         <v>483.87</v>
       </c>
-      <c r="O8" t="n">
-        <v>533.87</v>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
         <v>166.87</v>
       </c>
@@ -943,50 +915,6 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
